--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126429.0438716514</v>
+        <v>-76759.00031230462</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17367124.05617157</v>
+        <v>16601219.99236629</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484445</v>
+        <v>492028.9342484456</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8720234.670708084</v>
+        <v>8744219.851995645</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>104.4122879039225</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>367.0909176243518</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>152.355512532834</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>47.53839562355231</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>8.184812400121125</v>
+        <v>215.3437897983387</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.28928691739486</v>
+        <v>102.8562685532377</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1148,7 +1148,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>237.2918439661991</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>250.0563964323925</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>116.0434079398616</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>45.34200957770273</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>122.5062303102999</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1421,13 +1421,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>50.53286074912887</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>135.5617611170613</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1619,7 +1619,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>346.9747288320962</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170479</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068463</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1844,13 +1844,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884118</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>161.1613183067222</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>60.79149359416217</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361656</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>71.16975564759103</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>105.5913540128618</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023742</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>249.4112747763485</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888186</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2719,10 +2719,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2731,7 +2731,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>281.6392935584441</v>
+        <v>261.2176802955792</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2956,19 +2956,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>115.6348798138345</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225831</v>
       </c>
       <c r="T37" t="n">
-        <v>122.9742767430585</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413114</v>
+        <v>421.6239533009273</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496636</v>
+        <v>433.3484266092795</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385526</v>
+        <v>431.1380654981685</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157529</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724686</v>
+        <v>285.8262315320845</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925405</v>
+        <v>82.40273359886993</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U38" t="n">
-        <v>240.394369317406</v>
+        <v>256.2174581770219</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043297</v>
+        <v>400.3942785639456</v>
       </c>
       <c r="X38" t="n">
-        <v>398.7153284477351</v>
+        <v>414.538417307351</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245958</v>
+        <v>403.7906409842117</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>170.4234729224759</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913611</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>167.6478022326387</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>138.0905310873978</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432275</v>
+        <v>87.36072825393998</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934529</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>227.184941618582</v>
+        <v>43.80028873226844</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006784</v>
+        <v>275.2360492602943</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W40" t="n">
-        <v>253.0704300308241</v>
+        <v>268.89351889044</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413114</v>
+        <v>421.6239533009273</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496636</v>
+        <v>433.3484266092795</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385526</v>
+        <v>431.1380654981685</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157529</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724686</v>
+        <v>285.8262315320845</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925402</v>
+        <v>82.40273359886991</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770219</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043297</v>
+        <v>400.3942785639456</v>
       </c>
       <c r="X41" t="n">
-        <v>398.7153284477351</v>
+        <v>414.538417307351</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245958</v>
+        <v>403.7906409842117</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>170.4234729224759</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913611</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>167.6478022326387</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>62.68034852674126</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>138.0905310873978</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432407</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934501</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781978</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006784</v>
+        <v>275.2360492602943</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>268.89351889044</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413114</v>
+        <v>421.6239533009273</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496636</v>
+        <v>433.3484266092795</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385526</v>
+        <v>431.1380654981685</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157529</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724686</v>
+        <v>285.8262315320845</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925313</v>
+        <v>82.40273359886991</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770219</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043297</v>
+        <v>400.3942785639456</v>
       </c>
       <c r="X44" t="n">
-        <v>398.7153284477351</v>
+        <v>414.538417307351</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245958</v>
+        <v>403.7906409842117</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>170.4234729224759</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913611</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>167.6478022326387</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432316</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934504</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>26.24351759540897</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781978</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006784</v>
+        <v>275.2360492602943</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>268.89351889044</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.8413732171583</v>
+        <v>1208.945020218538</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1174.842951442365</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>738.9331666168098</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>709.1988258155091</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.3999191242446</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.3999191242446</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746089</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746089</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.5244520203788</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1094.237788542707</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1138.122041139064</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1138.122041139064</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1138.122041139064</v>
       </c>
       <c r="O2" t="n">
-        <v>1277.130531135514</v>
+        <v>1138.122041139064</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1747.835377661393</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2294.334163619988</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2463.488228373044</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2463.488228373044</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2463.488228373044</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>2463.488228373044</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>2463.488228373044</v>
       </c>
       <c r="W2" t="n">
-        <v>670.4887227422939</v>
+        <v>2058.632773784077</v>
       </c>
       <c r="X2" t="n">
-        <v>655.3866633620087</v>
+        <v>1639.490310363388</v>
       </c>
       <c r="Y2" t="n">
-        <v>247.1005396616621</v>
+        <v>1635.244590703446</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.4415095587536</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.9850483953959</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.8947595419492</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>259.7743448689029</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.3905064850645</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>91.00541675124842</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746089</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.33343772791849</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.8917626941308</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.8917626941308</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.8917626941308</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.8917626941308</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.8917626941308</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>444.8844727975259</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.597809319854</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.33674795193</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.50952604627</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1649.054088494653</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.875444825254</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.538897825223</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.421379887222</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>958.098625620416</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.231189859296</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.7454106385168</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.8381257054811</v>
+        <v>694.1460032952323</v>
       </c>
       <c r="C4" t="n">
-        <v>187.8381257054811</v>
+        <v>521.5842917784572</v>
       </c>
       <c r="D4" t="n">
-        <v>187.8381257054811</v>
+        <v>355.7062989799799</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>185.9482952307172</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>185.9482952307172</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>185.9482952307172</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.9297137927855</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746089</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.26976456746089</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>208.1667582060701</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>626.3766399740311</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>1085.860507154944</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1528.119310312589</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1947.78855953837</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2295.295453508712</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2463.488228373044</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2442.070407078416</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2442.070407078416</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2196.190960656872</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1917.757959909977</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1630.802451780407</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>1358.776047366699</v>
       </c>
       <c r="X4" t="n">
-        <v>187.8381257054811</v>
+        <v>1113.384292700111</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.8381257054811</v>
+        <v>885.9646220142195</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1647.308997322836</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C5" t="n">
-        <v>1613.206928546663</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>1581.337547761512</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.75587349878</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>724.8884439079882</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>1688.915942807568</v>
+        <v>1830.702594087989</v>
       </c>
       <c r="X5" t="n">
-        <v>1673.813883427282</v>
+        <v>1411.5601306673</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.56816376734</v>
+        <v>1407.314411007357</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.0776450162207</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C7" t="n">
-        <v>141.0776450162207</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D7" t="n">
-        <v>141.0776450162207</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021125</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y7" t="n">
-        <v>141.0776450162207</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1373.380099989107</v>
+        <v>1267.502422415565</v>
       </c>
       <c r="C8" t="n">
-        <v>935.2376271725306</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D8" t="n">
-        <v>903.3682463873791</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E8" t="n">
-        <v>469.5935015456743</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F8" t="n">
-        <v>445.7664759952861</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>44.36864461854996</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>44.36864461854996</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>44.36864461854996</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>479.6233320714678</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>953.7174030612907</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>953.7174030612907</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>953.7174030612907</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>953.7174030612907</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>953.7174030612907</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1502.779380215846</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2049.278166174441</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2218.432230927498</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2134.780357111335</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1914.713129984374</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1655.49082730139</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1415.802096022401</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>1414.987045473839</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X8" t="n">
-        <v>1399.884986093554</v>
+        <v>1946.384211519051</v>
       </c>
       <c r="Y8" t="n">
-        <v>1395.639266433611</v>
+        <v>1693.801992900473</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.5403896098428</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>444.0839284464851</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.9936395930383</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.873224919992</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>171.4893865361536</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>86.1042968023375</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>44.36864461854996</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>70.43231777900756</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.9906427452199</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>944.0526198997756</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1590.435628003019</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1707.608406097359</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1644.152968545742</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.974324876344</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1337.637777876312</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1138.520259938311</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>953.1975056715053</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>798.3300699103852</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.8442906896059</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.2683078335742</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>344.7065963167992</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="D10" t="n">
-        <v>178.8286035183218</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="E10" t="n">
-        <v>178.8286035183218</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>178.8286035183218</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>178.8286035183218</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>133.0285938438746</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>44.36864461854996</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>44.36864461854996</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>44.36864461854996</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>381.3206425284849</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>840.804509709398</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1283.063312867042</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1702.732562092824</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2050.239456063166</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2218.432230927498</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2197.01440963287</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2037.773040930867</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1791.893594509322</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.460593762427</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1226.505085632857</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>954.4786812191489</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>709.0869265525614</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>709.0869265525614</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2518.050233702663</v>
+        <v>2245.579471736855</v>
       </c>
       <c r="C11" t="n">
-        <v>2079.907760886087</v>
+        <v>1807.436998920278</v>
       </c>
       <c r="D11" t="n">
-        <v>1643.997976060531</v>
+        <v>1371.527214094723</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.223231218826</v>
+        <v>937.7524692530178</v>
       </c>
       <c r="F11" t="n">
-        <v>782.355801628034</v>
+        <v>509.8850396622256</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9579702512979</v>
+        <v>386.1413726821247</v>
       </c>
       <c r="H11" t="n">
-        <v>91.82781569451417</v>
+        <v>97.01121812534092</v>
       </c>
       <c r="I11" t="n">
-        <v>91.41102632165418</v>
+        <v>96.59442875248092</v>
       </c>
       <c r="J11" t="n">
-        <v>306.1527305093744</v>
+        <v>396.1687872976552</v>
       </c>
       <c r="K11" t="n">
-        <v>1140.503022467552</v>
+        <v>1230.519079255833</v>
       </c>
       <c r="L11" t="n">
-        <v>2215.562988720412</v>
+        <v>2305.579045508693</v>
       </c>
       <c r="M11" t="n">
-        <v>2215.562988720412</v>
+        <v>2305.579045508693</v>
       </c>
       <c r="N11" t="n">
-        <v>2215.562988720412</v>
+        <v>2305.579045508693</v>
       </c>
       <c r="O11" t="n">
-        <v>3195.742655290718</v>
+        <v>3285.758712078999</v>
       </c>
       <c r="P11" t="n">
-        <v>4024.052530124114</v>
+        <v>4114.068586912394</v>
       </c>
       <c r="Q11" t="n">
-        <v>4570.551316082709</v>
+        <v>4660.56737287099</v>
       </c>
       <c r="R11" t="n">
-        <v>4570.551316082709</v>
+        <v>4829.721437624046</v>
       </c>
       <c r="S11" t="n">
-        <v>4486.899442266546</v>
+        <v>4746.069563807883</v>
       </c>
       <c r="T11" t="n">
-        <v>4486.899442266546</v>
+        <v>4526.002336680922</v>
       </c>
       <c r="U11" t="n">
-        <v>4227.677139583562</v>
+        <v>4266.780033997939</v>
       </c>
       <c r="V11" t="n">
-        <v>4176.633845897573</v>
+        <v>3904.163083931765</v>
       </c>
       <c r="W11" t="n">
-        <v>3771.778391308607</v>
+        <v>3499.307629342798</v>
       </c>
       <c r="X11" t="n">
-        <v>3352.635927887918</v>
+        <v>3080.165165922109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2944.349804187571</v>
+        <v>2671.879042221763</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>597.582771312947</v>
+        <v>602.7661737437737</v>
       </c>
       <c r="C12" t="n">
-        <v>491.1263101495892</v>
+        <v>496.309712580416</v>
       </c>
       <c r="D12" t="n">
-        <v>396.0360212961425</v>
+        <v>401.2194237269692</v>
       </c>
       <c r="E12" t="n">
-        <v>301.9156066230962</v>
+        <v>307.0990090539229</v>
       </c>
       <c r="F12" t="n">
-        <v>218.5317682392578</v>
+        <v>223.7151706700845</v>
       </c>
       <c r="G12" t="n">
-        <v>133.1466785054417</v>
+        <v>138.3300809362684</v>
       </c>
       <c r="H12" t="n">
-        <v>91.41102632165418</v>
+        <v>96.59442875248092</v>
       </c>
       <c r="I12" t="n">
-        <v>117.4746994821118</v>
+        <v>122.6581019129385</v>
       </c>
       <c r="J12" t="n">
-        <v>442.0330244483241</v>
+        <v>447.2164268791508</v>
       </c>
       <c r="K12" t="n">
-        <v>1096.739071074048</v>
+        <v>447.2164268791508</v>
       </c>
       <c r="L12" t="n">
-        <v>1096.739071074048</v>
+        <v>447.2164268791508</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.739071074048</v>
+        <v>447.2164268791508</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.739071074048</v>
+        <v>447.2164268791508</v>
       </c>
       <c r="O12" t="n">
-        <v>1096.739071074048</v>
+        <v>1101.922473504874</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.739071074048</v>
+        <v>1101.922473504874</v>
       </c>
       <c r="Q12" t="n">
-        <v>1637.478009706123</v>
+        <v>1642.66141213695</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.650787800463</v>
+        <v>1759.83419023129</v>
       </c>
       <c r="S12" t="n">
-        <v>1691.195350248846</v>
+        <v>1696.378752679673</v>
       </c>
       <c r="T12" t="n">
-        <v>1561.016706579448</v>
+        <v>1566.200109010274</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.680159579416</v>
+        <v>1389.863562010243</v>
       </c>
       <c r="V12" t="n">
-        <v>1185.562641641415</v>
+        <v>1190.746044072242</v>
       </c>
       <c r="W12" t="n">
-        <v>1000.239887374609</v>
+        <v>1005.423289805436</v>
       </c>
       <c r="X12" t="n">
-        <v>845.3724516134894</v>
+        <v>850.5558540443161</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.8866723927101</v>
+        <v>724.0700748235369</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.9070633985855</v>
+        <v>947.0904658294121</v>
       </c>
       <c r="C13" t="n">
-        <v>769.3453518818104</v>
+        <v>774.528754312637</v>
       </c>
       <c r="D13" t="n">
-        <v>603.4673590833331</v>
+        <v>608.6507615141597</v>
       </c>
       <c r="E13" t="n">
-        <v>433.7093553340703</v>
+        <v>438.8927577648971</v>
       </c>
       <c r="F13" t="n">
-        <v>257.0023012958265</v>
+        <v>262.1857037266533</v>
       </c>
       <c r="G13" t="n">
-        <v>91.41102632165418</v>
+        <v>96.59442875248092</v>
       </c>
       <c r="H13" t="n">
-        <v>91.41102632165418</v>
+        <v>96.59442875248092</v>
       </c>
       <c r="I13" t="n">
-        <v>91.41102632165418</v>
+        <v>96.59442875248092</v>
       </c>
       <c r="J13" t="n">
-        <v>177.990711486344</v>
+        <v>183.1741139171708</v>
       </c>
       <c r="K13" t="n">
-        <v>452.7491660574797</v>
+        <v>457.9325684883064</v>
       </c>
       <c r="L13" t="n">
-        <v>870.9590478254407</v>
+        <v>876.1424502562675</v>
       </c>
       <c r="M13" t="n">
-        <v>1330.442915006354</v>
+        <v>1335.62631743718</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.701718163998</v>
+        <v>1777.885120594825</v>
       </c>
       <c r="O13" t="n">
-        <v>2192.37096738978</v>
+        <v>2197.554369820607</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.877861360122</v>
+        <v>2545.061263790948</v>
       </c>
       <c r="Q13" t="n">
-        <v>2708.070636224454</v>
+        <v>2713.254038655281</v>
       </c>
       <c r="R13" t="n">
-        <v>2708.070636224454</v>
+        <v>2713.254038655281</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.83146718177</v>
+        <v>2554.012669953277</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.952020760225</v>
+        <v>2308.133223531732</v>
       </c>
       <c r="U13" t="n">
-        <v>2165.51902001333</v>
+        <v>2029.700222784837</v>
       </c>
       <c r="V13" t="n">
-        <v>1878.56351188376</v>
+        <v>1742.744714655267</v>
       </c>
       <c r="W13" t="n">
-        <v>1606.537107470052</v>
+        <v>1470.718310241559</v>
       </c>
       <c r="X13" t="n">
-        <v>1361.145352803464</v>
+        <v>1225.326555574972</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.725682117573</v>
+        <v>1138.909084548399</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2221.116179943604</v>
+        <v>2472.026128040247</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.185108108188</v>
+        <v>2033.88365522367</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.275323282633</v>
+        <v>1597.973870398115</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.500578440928</v>
+        <v>1164.19912555641</v>
       </c>
       <c r="F14" t="n">
-        <v>786.6331488501357</v>
+        <v>736.3316959656177</v>
       </c>
       <c r="G14" t="n">
-        <v>385.2353174733996</v>
+        <v>385.8521718927933</v>
       </c>
       <c r="H14" t="n">
-        <v>96.1051629166159</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="I14" t="n">
-        <v>96.1051629166159</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="J14" t="n">
-        <v>531.3598503695339</v>
+        <v>531.9767047889275</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.710142327712</v>
+        <v>1366.326996747106</v>
       </c>
       <c r="L14" t="n">
-        <v>2440.770108580571</v>
+        <v>2311.958474685123</v>
       </c>
       <c r="M14" t="n">
-        <v>2450.269818468498</v>
+        <v>2311.958474685123</v>
       </c>
       <c r="N14" t="n">
-        <v>2450.269818468498</v>
+        <v>2311.958474685123</v>
       </c>
       <c r="O14" t="n">
-        <v>3430.449485038804</v>
+        <v>3292.138141255429</v>
       </c>
       <c r="P14" t="n">
-        <v>4258.7593598722</v>
+        <v>4120.448016088825</v>
       </c>
       <c r="Q14" t="n">
-        <v>4805.258145830795</v>
+        <v>4666.946802047421</v>
       </c>
       <c r="R14" t="n">
-        <v>4805.258145830795</v>
+        <v>4836.100866800477</v>
       </c>
       <c r="S14" t="n">
-        <v>4721.606272014632</v>
+        <v>4752.448992984314</v>
       </c>
       <c r="T14" t="n">
-        <v>4501.539044887671</v>
+        <v>4752.448992984314</v>
       </c>
       <c r="U14" t="n">
-        <v>4242.316742204687</v>
+        <v>4493.226690301331</v>
       </c>
       <c r="V14" t="n">
-        <v>3879.699792138514</v>
+        <v>4130.609740235157</v>
       </c>
       <c r="W14" t="n">
-        <v>3474.844337549547</v>
+        <v>3725.754285646191</v>
       </c>
       <c r="X14" t="n">
-        <v>3055.701874128858</v>
+        <v>3306.611822225501</v>
       </c>
       <c r="Y14" t="n">
-        <v>2647.415750428511</v>
+        <v>2898.325698525155</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.2769079079087</v>
+        <v>602.8937623273023</v>
       </c>
       <c r="C15" t="n">
-        <v>495.820446744551</v>
+        <v>496.4373011639446</v>
       </c>
       <c r="D15" t="n">
-        <v>400.7301578911042</v>
+        <v>401.3470123104979</v>
       </c>
       <c r="E15" t="n">
-        <v>306.6097432180579</v>
+        <v>307.2265976374516</v>
       </c>
       <c r="F15" t="n">
-        <v>223.2259048342195</v>
+        <v>223.8427592536132</v>
       </c>
       <c r="G15" t="n">
-        <v>137.8408151004034</v>
+        <v>138.4576695197971</v>
       </c>
       <c r="H15" t="n">
-        <v>96.1051629166159</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="I15" t="n">
-        <v>122.1688360770735</v>
+        <v>122.7856904964671</v>
       </c>
       <c r="J15" t="n">
-        <v>446.7271610432858</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.789000720479</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.961778814818</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.506341263201</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.71084317441</v>
+        <v>1566.327697593803</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.991150593771</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.873632655771</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.550878388965</v>
       </c>
       <c r="X15" t="n">
-        <v>850.0665882084511</v>
+        <v>850.6834426278447</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.5808089876718</v>
+        <v>724.1976634070654</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>805.5990003342281</v>
+        <v>947.2180544129409</v>
       </c>
       <c r="C16" t="n">
-        <v>633.037288817453</v>
+        <v>774.6563428961658</v>
       </c>
       <c r="D16" t="n">
-        <v>467.1592960189757</v>
+        <v>608.7783500976885</v>
       </c>
       <c r="E16" t="n">
-        <v>297.401292269713</v>
+        <v>439.0203463484257</v>
       </c>
       <c r="F16" t="n">
-        <v>120.6942382314692</v>
+        <v>262.3132923101819</v>
       </c>
       <c r="G16" t="n">
-        <v>96.1051629166159</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="H16" t="n">
-        <v>96.1051629166159</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="I16" t="n">
-        <v>96.1051629166159</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="J16" t="n">
-        <v>182.6848480813058</v>
+        <v>183.3017025006994</v>
       </c>
       <c r="K16" t="n">
-        <v>457.4433026524413</v>
+        <v>458.060157071835</v>
       </c>
       <c r="L16" t="n">
-        <v>875.6531844204023</v>
+        <v>876.270038839796</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.753906020709</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.39585475896</v>
+        <v>1778.012709178354</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.681958404135</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.571997955083</v>
+        <v>2545.188852374477</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="S16" t="n">
-        <v>2553.523404117412</v>
+        <v>2554.140258536806</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.643957695867</v>
+        <v>2308.260812115262</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.210956948973</v>
+        <v>2029.827811368367</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.255448819403</v>
+        <v>1742.872303238797</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.229044405695</v>
+        <v>1611.848098484407</v>
       </c>
       <c r="X16" t="n">
-        <v>1224.837289739107</v>
+        <v>1366.45634381782</v>
       </c>
       <c r="Y16" t="n">
-        <v>997.4176190532153</v>
+        <v>1139.036673131928</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.327580924765</v>
+        <v>2251.958900913286</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.185108108188</v>
+        <v>1813.816428096708</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.275323282633</v>
+        <v>1377.906643271152</v>
       </c>
       <c r="E17" t="n">
-        <v>1214.500578440928</v>
+        <v>1215.117432860322</v>
       </c>
       <c r="F17" t="n">
-        <v>786.6331488501357</v>
+        <v>787.2500032695294</v>
       </c>
       <c r="G17" t="n">
-        <v>385.2353174733996</v>
+        <v>385.8521718927933</v>
       </c>
       <c r="H17" t="n">
-        <v>96.1051629166159</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="I17" t="n">
-        <v>96.1051629166159</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="J17" t="n">
-        <v>531.3598503695339</v>
+        <v>531.9767047889275</v>
       </c>
       <c r="K17" t="n">
-        <v>1365.710142327712</v>
+        <v>1366.326996747106</v>
       </c>
       <c r="L17" t="n">
-        <v>2440.770108580571</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="M17" t="n">
-        <v>2440.770108580571</v>
+        <v>2481.11253943818</v>
       </c>
       <c r="N17" t="n">
-        <v>2450.269818468498</v>
+        <v>2481.11253943818</v>
       </c>
       <c r="O17" t="n">
-        <v>3430.449485038804</v>
+        <v>3461.292206008486</v>
       </c>
       <c r="P17" t="n">
-        <v>4258.7593598722</v>
+        <v>4289.602080841882</v>
       </c>
       <c r="Q17" t="n">
-        <v>4805.258145830795</v>
+        <v>4836.100866800477</v>
       </c>
       <c r="R17" t="n">
-        <v>4805.258145830795</v>
+        <v>4836.100866800477</v>
       </c>
       <c r="S17" t="n">
-        <v>4721.606272014632</v>
+        <v>4752.448992984314</v>
       </c>
       <c r="T17" t="n">
-        <v>4501.539044887671</v>
+        <v>4532.381765857353</v>
       </c>
       <c r="U17" t="n">
-        <v>4242.316742204687</v>
+        <v>4273.15946317437</v>
       </c>
       <c r="V17" t="n">
-        <v>4180.911193119675</v>
+        <v>3910.542513108197</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.055738530708</v>
+        <v>3505.687058519229</v>
       </c>
       <c r="X17" t="n">
-        <v>3356.913275110019</v>
+        <v>3086.54459509854</v>
       </c>
       <c r="Y17" t="n">
-        <v>2948.627151409672</v>
+        <v>2678.258471398193</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.2769079079087</v>
+        <v>602.8937623273023</v>
       </c>
       <c r="C18" t="n">
-        <v>495.820446744551</v>
+        <v>496.4373011639446</v>
       </c>
       <c r="D18" t="n">
-        <v>400.7301578911042</v>
+        <v>401.3470123104979</v>
       </c>
       <c r="E18" t="n">
-        <v>306.6097432180579</v>
+        <v>307.2265976374516</v>
       </c>
       <c r="F18" t="n">
-        <v>223.2259048342195</v>
+        <v>223.8427592536132</v>
       </c>
       <c r="G18" t="n">
-        <v>137.8408151004034</v>
+        <v>138.4576695197971</v>
       </c>
       <c r="H18" t="n">
-        <v>96.1051629166159</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="I18" t="n">
-        <v>122.1688360770735</v>
+        <v>122.7856904964671</v>
       </c>
       <c r="J18" t="n">
-        <v>446.7271610432858</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="K18" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="L18" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="M18" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="N18" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="O18" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="P18" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.789000720479</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.961778814818</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.506341263201</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.71084317441</v>
+        <v>1566.327697593803</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.991150593771</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.873632655771</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.550878388965</v>
       </c>
       <c r="X18" t="n">
-        <v>850.0665882084511</v>
+        <v>850.6834426278447</v>
       </c>
       <c r="Y18" t="n">
-        <v>723.5808089876718</v>
+        <v>724.1976634070654</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>946.6011999935472</v>
+        <v>965.457223455625</v>
       </c>
       <c r="C19" t="n">
-        <v>774.0394884767721</v>
+        <v>792.8955119388499</v>
       </c>
       <c r="D19" t="n">
-        <v>608.1614956782948</v>
+        <v>627.0175191403727</v>
       </c>
       <c r="E19" t="n">
-        <v>438.403491929032</v>
+        <v>457.2595153911099</v>
       </c>
       <c r="F19" t="n">
-        <v>261.6964378907882</v>
+        <v>280.5524613528661</v>
       </c>
       <c r="G19" t="n">
-        <v>96.10516291661588</v>
+        <v>185.3819665613342</v>
       </c>
       <c r="H19" t="n">
-        <v>96.10516291661588</v>
+        <v>185.3819665613342</v>
       </c>
       <c r="I19" t="n">
-        <v>96.1051629166159</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="J19" t="n">
-        <v>182.6848480813058</v>
+        <v>183.3017025006994</v>
       </c>
       <c r="K19" t="n">
-        <v>457.4433026524413</v>
+        <v>458.060157071835</v>
       </c>
       <c r="L19" t="n">
-        <v>875.6531844204023</v>
+        <v>876.270038839796</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.753906020709</v>
       </c>
       <c r="N19" t="n">
-        <v>1777.39585475896</v>
+        <v>1778.012709178354</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.681958404135</v>
       </c>
       <c r="P19" t="n">
-        <v>2544.571997955083</v>
+        <v>2545.188852374477</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="R19" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="S19" t="n">
-        <v>2694.525603776731</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="T19" t="n">
-        <v>2448.646157355186</v>
+        <v>2467.502180817265</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.213156608292</v>
+        <v>2189.06918007037</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.257648478722</v>
+        <v>1902.1136719408</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.231244065014</v>
+        <v>1630.087267527092</v>
       </c>
       <c r="X19" t="n">
-        <v>1365.839489398426</v>
+        <v>1384.695512860504</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.419818712534</v>
+        <v>1157.275842174613</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.744370297625</v>
+        <v>2522.944435344159</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.601897481049</v>
+        <v>2084.801962527582</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.692112655493</v>
+        <v>1648.892177702027</v>
       </c>
       <c r="E20" t="n">
-        <v>1214.917367813788</v>
+        <v>1215.117432860322</v>
       </c>
       <c r="F20" t="n">
-        <v>787.0499382229957</v>
+        <v>787.2500032695294</v>
       </c>
       <c r="G20" t="n">
-        <v>385.6521068462596</v>
+        <v>385.8521718927933</v>
       </c>
       <c r="H20" t="n">
-        <v>96.52195228947589</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="I20" t="n">
-        <v>96.1051629166159</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="J20" t="n">
-        <v>531.3598503695339</v>
+        <v>531.9767047889275</v>
       </c>
       <c r="K20" t="n">
-        <v>1365.710142327712</v>
+        <v>1366.326996747106</v>
       </c>
       <c r="L20" t="n">
-        <v>2440.770108580571</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="M20" t="n">
-        <v>2440.770108580571</v>
+        <v>2481.11253943818</v>
       </c>
       <c r="N20" t="n">
-        <v>2450.269818468498</v>
+        <v>2481.11253943818</v>
       </c>
       <c r="O20" t="n">
-        <v>3430.449485038804</v>
+        <v>3461.292206008486</v>
       </c>
       <c r="P20" t="n">
-        <v>4258.7593598722</v>
+        <v>4289.602080841882</v>
       </c>
       <c r="Q20" t="n">
-        <v>4805.258145830795</v>
+        <v>4836.100866800477</v>
       </c>
       <c r="R20" t="n">
-        <v>4805.258145830795</v>
+        <v>4836.100866800477</v>
       </c>
       <c r="S20" t="n">
-        <v>4721.606272014632</v>
+        <v>4764.212224732203</v>
       </c>
       <c r="T20" t="n">
-        <v>4501.539044887671</v>
+        <v>4544.144997605243</v>
       </c>
       <c r="U20" t="n">
-        <v>4242.316742204687</v>
+        <v>4544.144997605243</v>
       </c>
       <c r="V20" t="n">
-        <v>3879.699792138514</v>
+        <v>4181.528047539069</v>
       </c>
       <c r="W20" t="n">
-        <v>3474.844337549547</v>
+        <v>3776.672592950102</v>
       </c>
       <c r="X20" t="n">
-        <v>3055.701874128858</v>
+        <v>3357.530129529413</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.043940782533</v>
+        <v>2949.244005829066</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.2769079079087</v>
+        <v>602.8937623273023</v>
       </c>
       <c r="C21" t="n">
-        <v>495.820446744551</v>
+        <v>496.4373011639446</v>
       </c>
       <c r="D21" t="n">
-        <v>400.7301578911042</v>
+        <v>401.3470123104979</v>
       </c>
       <c r="E21" t="n">
-        <v>306.6097432180579</v>
+        <v>307.2265976374516</v>
       </c>
       <c r="F21" t="n">
-        <v>223.2259048342195</v>
+        <v>223.8427592536132</v>
       </c>
       <c r="G21" t="n">
-        <v>137.8408151004034</v>
+        <v>138.4576695197971</v>
       </c>
       <c r="H21" t="n">
-        <v>96.1051629166159</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="I21" t="n">
-        <v>122.1688360770735</v>
+        <v>122.7856904964671</v>
       </c>
       <c r="J21" t="n">
-        <v>446.7271610432858</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="K21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="L21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="M21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="N21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="O21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="P21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.789000720479</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.961778814818</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.506341263201</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.71084317441</v>
+        <v>1566.327697593803</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.991150593771</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.873632655771</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.550878388965</v>
       </c>
       <c r="X21" t="n">
-        <v>850.0665882084511</v>
+        <v>850.6834426278447</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.5808089876718</v>
+        <v>724.1976634070654</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1086.503374303173</v>
+        <v>784.7980334589945</v>
       </c>
       <c r="C22" t="n">
-        <v>913.9416627863976</v>
+        <v>612.2363219422194</v>
       </c>
       <c r="D22" t="n">
-        <v>748.0636699879203</v>
+        <v>446.3583291437421</v>
       </c>
       <c r="E22" t="n">
-        <v>578.3056662386575</v>
+        <v>276.6003253944793</v>
       </c>
       <c r="F22" t="n">
-        <v>401.5986122004137</v>
+        <v>99.89327135623554</v>
       </c>
       <c r="G22" t="n">
-        <v>236.0073372262414</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="H22" t="n">
-        <v>96.10516291661588</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="I22" t="n">
-        <v>96.1051629166159</v>
+        <v>96.72201733600954</v>
       </c>
       <c r="J22" t="n">
-        <v>182.6848480813058</v>
+        <v>183.3017025006994</v>
       </c>
       <c r="K22" t="n">
-        <v>457.4433026524413</v>
+        <v>458.060157071835</v>
       </c>
       <c r="L22" t="n">
-        <v>875.6531844204023</v>
+        <v>876.270038839796</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.753906020709</v>
       </c>
       <c r="N22" t="n">
-        <v>1777.39585475896</v>
+        <v>1778.012709178354</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.681958404135</v>
       </c>
       <c r="P22" t="n">
-        <v>2544.571997955083</v>
+        <v>2545.188852374477</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="R22" t="n">
-        <v>2712.764772819416</v>
+        <v>2691.963805944181</v>
       </c>
       <c r="S22" t="n">
-        <v>2553.523404117412</v>
+        <v>2532.722437242178</v>
       </c>
       <c r="T22" t="n">
-        <v>2553.523404117412</v>
+        <v>2286.842990820634</v>
       </c>
       <c r="U22" t="n">
-        <v>2275.090403370517</v>
+        <v>2008.409990073739</v>
       </c>
       <c r="V22" t="n">
-        <v>2023.159822788347</v>
+        <v>1721.454481944169</v>
       </c>
       <c r="W22" t="n">
-        <v>1751.133418374639</v>
+        <v>1449.428077530461</v>
       </c>
       <c r="X22" t="n">
-        <v>1505.741663708051</v>
+        <v>1204.036322863873</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.32199302216</v>
+        <v>976.6166521779816</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C25" t="n">
         <v>780.1951658309357</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>834.8539430951545</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405613</v>
+        <v>662.2922315783794</v>
       </c>
       <c r="D28" t="n">
-        <v>754.219347342084</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6415,19 +6415,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2313.799635050031</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
-        <v>2029.315500142511</v>
+        <v>1771.510391580329</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.289095728803</v>
+        <v>1499.483987166621</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.897341062215</v>
+        <v>1254.092232500033</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376324</v>
+        <v>1026.672561814142</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.756877347711</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716171</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731398</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>473.3149733731398</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>473.3149733731398</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>307.7236983989674</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,43 +6944,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6993,16 +6993,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405613</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>754.219347342084</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2316.27100827208</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.31550014251</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728802</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2525.85493345824</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014524</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1652.636254561829</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1219.278299092984</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835856</v>
+        <v>791.8276588750514</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>390.8466168711752</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="M38" t="n">
-        <v>2523.346856428596</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428596</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998903</v>
+        <v>3562.699858817503</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832299</v>
+        <v>4391.0097336509</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4937.508519609494</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>5106.662584362551</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4803.777062165146</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4544.971548855023</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.771388161709</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3778.332722945603</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3359.607048897774</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2951.737714570288</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397565</v>
+        <v>1178.273886689112</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936664</v>
+        <v>1006.128964545197</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080651</v>
+        <v>840.6677611195798</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716784</v>
+        <v>671.3265467431771</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463107</v>
+        <v>495.0362820777933</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850145</v>
+        <v>329.861796476481</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882651</v>
+        <v>190.3764115397156</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758675</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K40" t="n">
-        <v>491.051549882363</v>
+        <v>464.2883819517567</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856839</v>
+        <v>882.9067589840579</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341417</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2553.459553576099</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2677.818107813591</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2399.801896439557</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>2113.263177682848</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1841.653562641999</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1596.678597348271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703676</v>
+        <v>1369.675716035239</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2525.854933458239</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014523</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390331</v>
+        <v>1652.636254561827</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1219.278299092982</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835856</v>
+        <v>791.8276588750505</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>390.8466168711747</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>102.133251687251</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>936.483543645429</v>
       </c>
       <c r="L41" t="n">
-        <v>1367.171683086914</v>
+        <v>2011.543509898288</v>
       </c>
       <c r="M41" t="n">
-        <v>1367.171683086914</v>
+        <v>2751.674257000253</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.19279167554</v>
+        <v>2751.674257000253</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3731.85392357056</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4560.163798403956</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>5106.662584362551</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>5106.662584362551</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4803.777062165146</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4544.971548855023</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.771388161709</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3778.332722945603</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3359.607048897774</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2951.737714570287</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>977.0539455316085</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936676</v>
+        <v>804.9090233876934</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080664</v>
+        <v>639.4478199620762</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716798</v>
+        <v>470.1066055856735</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463121</v>
+        <v>406.7931222253287</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>241.6186366240165</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K43" t="n">
-        <v>491.051549882363</v>
+        <v>464.2883819517567</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856839</v>
+        <v>882.9067589840579</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341417</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2553.459553576099</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2476.598166656087</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2198.581955282052</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1912.043236525343</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1640.433621484495</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1395.458656190767</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1168.455774877736</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2525.854933458239</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014523</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1652.636254561827</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1219.278299092982</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835857</v>
+        <v>791.82765887505</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197256</v>
+        <v>390.8466168711748</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K44" t="n">
-        <v>1228.461808239093</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L44" t="n">
-        <v>1228.461808239093</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="M44" t="n">
-        <v>1228.461808239093</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.19279167554</v>
+        <v>2582.520192247196</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245846</v>
+        <v>3562.699858817502</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079242</v>
+        <v>4391.009733650899</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037837</v>
+        <v>4937.508519609493</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>5106.66258436255</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>5023.427499919247</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4803.777062165146</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4544.971548855023</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750117</v>
+        <v>4182.771388161709</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3778.332722945603</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3359.607048897774</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2951.737714570287</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710385</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.7552498139209</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>950.5453418998826</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936667</v>
+        <v>778.4004197559677</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080656</v>
+        <v>612.9392163303503</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716789</v>
+        <v>443.5980019539475</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463112</v>
+        <v>267.3077372885633</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850148</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882655</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K46" t="n">
-        <v>491.051549882363</v>
+        <v>464.2883819517567</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856839</v>
+        <v>882.9067589840579</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341417</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2553.459553576099</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2695.552220073046</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2450.089563024361</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947929</v>
+        <v>2172.073351650327</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1885.534632893617</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1613.925017852769</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976692</v>
+        <v>1368.950052559041</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1141.94717124601</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932612</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>44.32752787510799</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>615.872057093261</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.44718192262127</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>615.8720570932611</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>160.5020137763729</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>478.8828999897201</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318745</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318745</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840083</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8608,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>340.3555534443788</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>216.9108123108285</v>
+        <v>302.6003621668427</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8930,10 +8930,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.1833110485027</v>
       </c>
       <c r="M14" t="n">
-        <v>9.595666553461342</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.12684488708555</v>
       </c>
       <c r="N17" t="n">
-        <v>9.595666553461342</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.12684488708555</v>
       </c>
       <c r="N20" t="n">
-        <v>9.595666553461342</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.9345526149732</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>747.6068152545104</v>
       </c>
       <c r="N41" t="n">
-        <v>996.9910187763903</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,16 +11297,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>702.6670879902599</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>137.0929241373638</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158828</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>274.8776227526696</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>308.4579198163829</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>298.1992869713496</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.40912423087252</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>139.5921776627251</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>268.2756790865656</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>298.1992869713496</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>69.71657238081403</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>11.64559943041033</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.6119084504817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.7958207444069</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.67467827192533</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>2.446659489829756</v>
+        <v>22.86827275269462</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>22.86827275269473</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,10 +25360,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.592177662725</v>
       </c>
       <c r="T37" t="n">
-        <v>120.4463752142708</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.79102160255041</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.2363335358519</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>199.2077417459294</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>111.8470134919886</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.36072825393997</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.79102160255039</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.2363335358519</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.0905310873978</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.36072825393997</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>20.79102160255039</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>130.9928159404429</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>762870.5410372743</v>
+        <v>766799.9043484386</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>762870.5410372743</v>
+        <v>767859.1418603412</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>765543.3364035572</v>
+        <v>767859.1418603412</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>703687.4609403599</v>
+        <v>732729.7760395309</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>729988.4468137805</v>
+        <v>733444.6477662289</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>729988.4468137805</v>
+        <v>733444.6477662286</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>729988.4468137805</v>
+        <v>733444.647766229</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>776559.2967123057</v>
+        <v>764783.7612884969</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>776559.2967123057</v>
+        <v>764783.7612884969</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>776559.2967123057</v>
+        <v>764783.7612884969</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26320,40 @@
         <v>187651.561961643</v>
       </c>
       <c r="E2" t="n">
-        <v>169736.7545837093</v>
+        <v>176742.063878184</v>
       </c>
       <c r="F2" t="n">
-        <v>176080.8266786429</v>
+        <v>176914.498394313</v>
       </c>
       <c r="G2" t="n">
-        <v>176080.8266786429</v>
+        <v>176914.498394313</v>
       </c>
       <c r="H2" t="n">
-        <v>176080.8266786429</v>
+        <v>176914.4983943131</v>
       </c>
       <c r="I2" t="n">
+        <v>184400.1544480734</v>
+      </c>
+      <c r="J2" t="n">
+        <v>184400.1544480734</v>
+      </c>
+      <c r="K2" t="n">
         <v>184400.1544480733</v>
-      </c>
-      <c r="J2" t="n">
-        <v>184400.1544480733</v>
-      </c>
-      <c r="K2" t="n">
-        <v>184400.1544480734</v>
       </c>
       <c r="L2" t="n">
         <v>184400.1544480733</v>
       </c>
       <c r="M2" t="n">
-        <v>184400.1544480733</v>
+        <v>184400.1544480734</v>
       </c>
       <c r="N2" t="n">
-        <v>187651.561961643</v>
+        <v>184482.7871478146</v>
       </c>
       <c r="O2" t="n">
-        <v>187651.561961643</v>
+        <v>184482.7871478146</v>
       </c>
       <c r="P2" t="n">
-        <v>187651.561961643</v>
+        <v>184482.7871478146</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>206392.8913892649</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16684.38774088105</v>
       </c>
       <c r="D3" t="n">
-        <v>40478.87875178218</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>175572.7530518681</v>
+        <v>161206.7864921674</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510005</v>
+        <v>456.968081051494</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20461.54847120716</v>
+        <v>18411.11667046245</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>161139.2285061092</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13291.2941042725</v>
       </c>
       <c r="L3" t="n">
-        <v>32980.84506379713</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>146539.3711242546</v>
+        <v>134549.0157379113</v>
       </c>
       <c r="N3" t="n">
-        <v>12988.56827099784</v>
+        <v>330.0971833051415</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>141517.2215317692</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>154281.660142356</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>25482.65588368834</v>
+        <v>26534.36614259908</v>
       </c>
       <c r="F4" t="n">
-        <v>26435.09430218523</v>
+        <v>26560.25381464609</v>
       </c>
       <c r="G4" t="n">
-        <v>26435.09430218523</v>
+        <v>26560.25381464605</v>
       </c>
       <c r="H4" t="n">
-        <v>26435.09430218523</v>
+        <v>26560.25381464609</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26451,13 +26451,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>42419.67665353607</v>
+        <v>28075.16394942168</v>
       </c>
       <c r="O4" t="n">
-        <v>42419.67665353609</v>
+        <v>28075.16394942169</v>
       </c>
       <c r="P4" t="n">
-        <v>42419.67665353609</v>
+        <v>28075.16394942169</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>71072.62107127027</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>67347.76991009797</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69472.38000445717</v>
+        <v>73411.7658518855</v>
       </c>
       <c r="F5" t="n">
-        <v>73039.92381662808</v>
+        <v>73508.73317536725</v>
       </c>
       <c r="G5" t="n">
-        <v>73039.92381662808</v>
+        <v>73508.73317536725</v>
       </c>
       <c r="H5" t="n">
-        <v>73039.92381662808</v>
+        <v>73508.73317536725</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>77655.95995743987</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>77655.95995743987</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>77655.95995743986</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-195396.9132957514</v>
+        <v>-231331.1720306614</v>
       </c>
       <c r="C6" t="n">
-        <v>-53205.61263604144</v>
+        <v>-34002.65057301561</v>
       </c>
       <c r="D6" t="n">
-        <v>-74456.74684259316</v>
+        <v>-17318.2628321346</v>
       </c>
       <c r="E6" t="n">
-        <v>-100791.0343563043</v>
+        <v>-84488.77959477846</v>
       </c>
       <c r="F6" t="n">
-        <v>59793.40628472951</v>
+        <v>76311.85001205299</v>
       </c>
       <c r="G6" t="n">
-        <v>76605.8085598296</v>
+        <v>76768.81809310448</v>
       </c>
       <c r="H6" t="n">
-        <v>76605.8085598296</v>
+        <v>76768.81809310454</v>
       </c>
       <c r="I6" t="n">
-        <v>58536.288620871</v>
+        <v>60563.49608223305</v>
       </c>
       <c r="J6" t="n">
-        <v>-32016.62825291205</v>
+        <v>-82164.61575341369</v>
       </c>
       <c r="K6" t="n">
-        <v>78997.83709207817</v>
+        <v>65683.31864842298</v>
       </c>
       <c r="L6" t="n">
-        <v>46016.99202828101</v>
+        <v>78974.61275269548</v>
       </c>
       <c r="M6" t="n">
-        <v>-67541.53403217645</v>
+        <v>-55574.40298521582</v>
       </c>
       <c r="N6" t="n">
-        <v>56727.70231101935</v>
+        <v>78398.93195183491</v>
       </c>
       <c r="O6" t="n">
-        <v>69716.27058201714</v>
+        <v>78729.02913513998</v>
       </c>
       <c r="P6" t="n">
-        <v>69716.27058201714</v>
+        <v>78729.02913514002</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932611</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>554.6080577318745</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1142.637829020677</v>
+        <v>1207.430359406012</v>
       </c>
       <c r="F4" t="n">
-        <v>1201.314536457699</v>
+        <v>1209.025216700119</v>
       </c>
       <c r="G4" t="n">
-        <v>1201.314536457699</v>
+        <v>1209.025216700119</v>
       </c>
       <c r="H4" t="n">
-        <v>1201.314536457699</v>
+        <v>1209.025216700119</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090637</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932611</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>51.64314951459585</v>
       </c>
       <c r="D4" t="n">
-        <v>130.3122002117702</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>588.0297712888025</v>
+        <v>539.9151527981546</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702161</v>
+        <v>1.594857294107669</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>76.94596692704658</v>
+        <v>69.23528668462609</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>615.8720570932611</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>51.64314951459585</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117702</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712888021</v>
+        <v>539.9151527981546</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932611</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>51.64314951459585</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117702</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712888025</v>
+        <v>539.9151527981546</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702161</v>
+        <v>1.594857294107669</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>329.3487601844884</v>
-      </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>56.49783767053253</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>15.7049111789361</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27552,10 +27552,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>90.96475694297692</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.6220876429559</v>
+        <v>185.4631102447383</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>149.7711367943753</v>
+        <v>65.20415515853239</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>121.6989365993126</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>154.1468660309506</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>93.1611429888265</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874731</v>
+        <v>0.4126214791314269</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314453</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874733</v>
+        <v>0.4126214791314453</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932612</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>44.32752787510799</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>615.872057093261</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.44718192262127</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>615.8720570932611</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>160.5020137763729</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>478.8828999897201</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318745</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318745</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840083</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>340.3555534443788</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -35346,7 +35346,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>216.9108123108285</v>
+        <v>302.6003621668427</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.1833110485027</v>
       </c>
       <c r="M14" t="n">
-        <v>9.595666553461342</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.12684488708555</v>
       </c>
       <c r="N17" t="n">
-        <v>9.595666553461342</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.12684488708555</v>
       </c>
       <c r="N20" t="n">
-        <v>9.595666553461342</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37473,10 +37473,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>446.726063795601</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37543,13 +37543,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.9345526149732</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821211</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>277.946413975228</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>422.8468454871729</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>464.5377398436902</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>424.3209540304256</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>747.6068152545104</v>
       </c>
       <c r="N41" t="n">
-        <v>996.9910187763903</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821211</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>277.946413975228</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467888</v>
+        <v>422.8468454871729</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>464.53773984369</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>424.3209540304258</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>702.6670879902599</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>137.0929241373638</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158828</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821213</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348438</v>
+        <v>277.946413975228</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>422.8468454871729</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>464.53773984369</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>424.3209540304258</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
